--- a/lab_reports/viscosity_of_water/viscosity_of_water.xlsx
+++ b/lab_reports/viscosity_of_water/viscosity_of_water.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
-    <sheet name="Jon's " sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Jon''s '!$T$38</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Data!$T$38</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Jon''s '!$T$36</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Data!$T$36</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -1152,7 +1152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1197,8 +1197,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1479,9 +1483,6 @@
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1497,8 +1498,14 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="48">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1521,6 +1528,8 @@
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1542,6 +1551,8 @@
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1614,7 +1625,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Jon''s '!$E$4:$E$16</c:f>
+                <c:f>Data!$E$4:$E$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
@@ -1662,7 +1673,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Jon''s '!$E$4:$E$16</c:f>
+                <c:f>Data!$E$4:$E$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
@@ -1711,7 +1722,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jon''s '!$B$4:$B$16</c:f>
+              <c:f>Data!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1759,7 +1770,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jon''s '!$D$4:$D$16</c:f>
+              <c:f>Data!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1840,7 +1851,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jon''s '!$B$20:$B$35</c:f>
+              <c:f>Data!$B$20:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1888,7 +1899,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jon''s '!$C$20:$C$35</c:f>
+              <c:f>Data!$C$20:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1961,7 +1972,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jon''s '!$K$4:$K$16</c:f>
+              <c:f>Data!$K$4:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1994,7 +2005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jon''s '!$M$4:$M$16</c:f>
+              <c:f>Data!$M$4:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2049,7 +2060,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jon''s '!$T$4:$T$16</c:f>
+              <c:f>Data!$T$4:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2082,7 +2093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jon''s '!$V$4:$V$16</c:f>
+              <c:f>Data!$V$4:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2143,7 +2154,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jon''s '!$I$20:$I$35</c:f>
+              <c:f>Data!$I$20:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2176,7 +2187,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jon''s '!$J$20:$J$35</c:f>
+              <c:f>Data!$J$20:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2237,7 +2248,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jon''s '!$P$20:$P$35</c:f>
+              <c:f>Data!$P$20:$P$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2270,7 +2281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jon''s '!$Q$20:$Q$35</c:f>
+              <c:f>Data!$Q$20:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2393,6 +2404,2781 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>blue</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>μ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$61:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$61:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-0.00361916191487616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00901570157213022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00612721271864121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0123812381205237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.0230797079668507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0106662666312668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00330113011827315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.00961956195027605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0314291429077141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0165720571984855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0127294729551875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0291103110403114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0432689269032129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-986942304"/>
+        <c:axId val="-1006689376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-986942304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1006689376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1006689376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-986942304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>red</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>μ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$F$61:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$G$61:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.000742944368045364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00129188904168705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0200066108819139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0036948891944852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00927027739578238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.0100132217638277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00313272275701579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0251675561667482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-987042480"/>
+        <c:axId val="-987044800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-987042480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-987044800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-987044800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-987042480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>black</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>μ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$J$61:$J$68</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$61:$K$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.00152811867461863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00583265153965163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00791768935718921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.00611247469847452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.000973926706426472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00527573239673269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00985872483322515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0100027271747268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1010039408"/>
+        <c:axId val="-1010376976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1010039408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1010376976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1010376976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1010039408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2699,6 +5485,96 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302026</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>149198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647807</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>131270</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>519740</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>32229</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632867</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>149199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284951</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2991,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="119" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="119" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6094,7 +8970,7 @@
       <c r="S57" s="1"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="97" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="86"/>
@@ -6105,32 +8981,32 @@
       <c r="L59" s="88"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="96" t="s">
+      <c r="B60" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="98" t="s">
+      <c r="E60" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="93" t="s">
+      <c r="F60" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="G60" s="96" t="s">
         <v>26</v>
       </c>
       <c r="H60" s="87"/>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="J60" s="93" t="s">
+      <c r="J60" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="94" t="s">
+      <c r="K60" s="96" t="s">
         <v>26</v>
       </c>
       <c r="L60" s="90"/>
@@ -6139,21 +9015,21 @@
       <c r="B61" s="93">
         <v>2</v>
       </c>
-      <c r="C61" s="95">
+      <c r="C61" s="94">
         <v>-3.6191619148761567E-3</v>
       </c>
       <c r="F61" s="93">
         <v>2</v>
       </c>
-      <c r="G61" s="95">
+      <c r="G61" s="94">
         <v>-7.4294436804536387E-4</v>
       </c>
       <c r="H61" s="87"/>
       <c r="I61" s="89"/>
-      <c r="J61" s="93">
+      <c r="J61" s="99">
         <v>2</v>
       </c>
-      <c r="K61" s="95">
+      <c r="K61" s="100">
         <v>-1.5281186746186302E-3</v>
       </c>
       <c r="L61" s="90"/>
@@ -6162,13 +9038,13 @@
       <c r="B62" s="93">
         <v>3</v>
       </c>
-      <c r="C62" s="95">
+      <c r="C62" s="94">
         <v>9.0157015721302192E-3</v>
       </c>
       <c r="F62" s="93">
         <v>4</v>
       </c>
-      <c r="G62" s="95">
+      <c r="G62" s="94">
         <v>1.2918890416870471E-3</v>
       </c>
       <c r="H62" s="87"/>
@@ -6176,7 +9052,7 @@
       <c r="J62" s="93">
         <v>4</v>
       </c>
-      <c r="K62" s="95">
+      <c r="K62" s="94">
         <v>5.8326515396516267E-3</v>
       </c>
       <c r="L62" s="90"/>
@@ -6185,21 +9061,21 @@
       <c r="B63" s="93">
         <v>4</v>
       </c>
-      <c r="C63" s="95">
+      <c r="C63" s="94">
         <v>-6.127212718641209E-3</v>
       </c>
       <c r="F63" s="93">
-        <v>8</v>
-      </c>
-      <c r="G63" s="95">
-        <v>3.6948891944851986E-3</v>
+        <v>6</v>
+      </c>
+      <c r="G63" s="94">
+        <v>-2.0006610881913862E-2</v>
       </c>
       <c r="H63" s="87"/>
       <c r="I63" s="89"/>
       <c r="J63" s="93">
         <v>6</v>
       </c>
-      <c r="K63" s="95">
+      <c r="K63" s="94">
         <v>-7.9176893571892143E-3</v>
       </c>
       <c r="L63" s="90"/>
@@ -6208,21 +9084,21 @@
       <c r="B64" s="93">
         <v>5</v>
       </c>
-      <c r="C64" s="95">
+      <c r="C64" s="94">
         <v>-1.2381238120523733E-2</v>
       </c>
       <c r="F64" s="93">
-        <v>10</v>
-      </c>
-      <c r="G64" s="95">
-        <v>-9.2702773957823864E-3</v>
+        <v>8</v>
+      </c>
+      <c r="G64" s="94">
+        <v>3.6948891944851986E-3</v>
       </c>
       <c r="H64" s="87"/>
       <c r="I64" s="89"/>
       <c r="J64" s="93">
         <v>8</v>
       </c>
-      <c r="K64" s="95">
+      <c r="K64" s="94">
         <v>-6.112474698474521E-3</v>
       </c>
       <c r="L64" s="90"/>
@@ -6231,21 +9107,21 @@
       <c r="B65" s="93">
         <v>6</v>
       </c>
-      <c r="C65" s="95">
+      <c r="C65" s="94">
         <v>-2.3079707966850674E-2</v>
       </c>
       <c r="F65" s="93">
-        <v>12</v>
-      </c>
-      <c r="G65" s="95">
-        <v>-1.0013221763827712E-2</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="94">
+        <v>-9.2702773957823864E-3</v>
       </c>
       <c r="H65" s="87"/>
       <c r="I65" s="89"/>
       <c r="J65" s="93">
         <v>10</v>
       </c>
-      <c r="K65" s="95">
+      <c r="K65" s="94">
         <v>-9.7392670642647283E-4</v>
       </c>
       <c r="L65" s="90"/>
@@ -6254,21 +9130,21 @@
       <c r="B66" s="93">
         <v>7</v>
       </c>
-      <c r="C66" s="95">
+      <c r="C66" s="94">
         <v>1.0666266631266824E-2</v>
       </c>
       <c r="F66" s="93">
-        <v>14</v>
-      </c>
-      <c r="G66" s="95">
-        <v>3.1327227570157878E-3</v>
+        <v>12</v>
+      </c>
+      <c r="G66" s="94">
+        <v>-1.0013221763827712E-2</v>
       </c>
       <c r="H66" s="87"/>
       <c r="I66" s="89"/>
       <c r="J66" s="93">
         <v>12</v>
       </c>
-      <c r="K66" s="95">
+      <c r="K66" s="94">
         <v>5.2757323967326936E-3</v>
       </c>
       <c r="L66" s="90"/>
@@ -6277,21 +9153,21 @@
       <c r="B67" s="93">
         <v>8</v>
       </c>
-      <c r="C67" s="95">
+      <c r="C67" s="94">
         <v>3.3011301182731545E-3</v>
       </c>
       <c r="F67" s="93">
-        <v>16</v>
-      </c>
-      <c r="G67" s="95">
-        <v>2.5167556166748206E-2</v>
+        <v>14</v>
+      </c>
+      <c r="G67" s="94">
+        <v>3.1327227570157878E-3</v>
       </c>
       <c r="H67" s="87"/>
       <c r="I67" s="89"/>
       <c r="J67" s="93">
         <v>14</v>
       </c>
-      <c r="K67" s="95">
+      <c r="K67" s="94">
         <v>9.8587248332251548E-3</v>
       </c>
       <c r="L67" s="90"/>
@@ -6300,17 +9176,21 @@
       <c r="B68" s="93">
         <v>9</v>
       </c>
-      <c r="C68" s="95">
+      <c r="C68" s="94">
         <v>-9.619561950276051E-3</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="89"/>
+      <c r="F68" s="93">
+        <v>16</v>
+      </c>
+      <c r="G68" s="94">
+        <v>2.5167556166748206E-2</v>
+      </c>
       <c r="H68" s="87"/>
       <c r="I68" s="89"/>
       <c r="J68" s="93">
         <v>16</v>
       </c>
-      <c r="K68" s="95">
+      <c r="K68" s="94">
         <v>-1.0002727174726833E-2</v>
       </c>
       <c r="L68" s="90"/>
@@ -6319,7 +9199,7 @@
       <c r="B69" s="93">
         <v>10</v>
       </c>
-      <c r="C69" s="95">
+      <c r="C69" s="94">
         <v>-3.1429142907714119E-2</v>
       </c>
       <c r="F69" s="87"/>
@@ -6334,7 +9214,7 @@
       <c r="B70" s="93">
         <v>11</v>
       </c>
-      <c r="C70" s="95">
+      <c r="C70" s="94">
         <v>-1.6572057198485507E-2</v>
       </c>
       <c r="F70" s="87"/>
@@ -6349,7 +9229,7 @@
       <c r="B71" s="93">
         <v>12</v>
       </c>
-      <c r="C71" s="95">
+      <c r="C71" s="94">
         <v>1.2729472955187504E-2</v>
       </c>
       <c r="F71" s="87"/>
@@ -6364,7 +9244,7 @@
       <c r="B72" s="93">
         <v>14</v>
       </c>
-      <c r="C72" s="95">
+      <c r="C72" s="94">
         <v>2.9110311040311421E-2</v>
       </c>
       <c r="F72" s="87"/>
@@ -6379,7 +9259,7 @@
       <c r="B73" s="93">
         <v>16</v>
       </c>
-      <c r="C73" s="95">
+      <c r="C73" s="94">
         <v>4.3268926903212934E-2</v>
       </c>
       <c r="F73" s="87"/>

--- a/lab_reports/viscosity_of_water/viscosity_of_water.xlsx
+++ b/lab_reports/viscosity_of_water/viscosity_of_water.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -76,22 +76,6 @@
     <t>η</t>
   </si>
   <si>
-    <r>
-      <t>V /cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
     <t>M /g</t>
   </si>
   <si>
@@ -111,22 +95,6 @@
   </si>
   <si>
     <t>Analysis</t>
-  </si>
-  <si>
-    <r>
-      <t>E(dV/dt)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
   </si>
   <si>
     <t>N/a</t>
@@ -287,137 +255,6 @@
   </si>
   <si>
     <r>
-      <t>V'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>dV/dt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">M </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vm</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>L</t>
     </r>
     <r>
@@ -479,27 +316,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>ρ /kgm</t>
     </r>
     <r>
@@ -511,21 +327,6 @@
         <family val="2"/>
       </rPr>
       <t>-3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>χ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
     </r>
   </si>
   <si>
@@ -560,9 +361,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -586,6 +384,196 @@
   <si>
     <t>Residuals</t>
   </si>
+  <si>
+    <t>Temp (deg C)</t>
+  </si>
+  <si>
+    <r>
+      <t>V /cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>dV/dt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">M </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E(dV/dt)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Vm</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -597,7 +585,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,8 +672,38 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1201,8 +1225,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,15 +1293,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1282,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1294,9 +1320,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,19 +1341,10 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,15 +1359,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1381,12 +1389,6 @@
     <xf numFmtId="167" fontId="0" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,18 +1410,12 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1504,8 +1500,71 @@
     <xf numFmtId="166" fontId="5" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="62">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1530,6 +1589,13 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1553,6 +1619,13 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1904,7 +1977,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0458413841370984</c:v>
+                  <c:v>0.0789725165104337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0687620762056475</c:v>
@@ -5867,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="119" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="119" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5876,16 +5949,20 @@
     <col min="1" max="3" width="9.1640625" style="2"/>
     <col min="4" max="6" width="9.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" style="2"/>
     <col min="10" max="13" width="9.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" style="2" customWidth="1"/>
-    <col min="16" max="18" width="9.1640625" style="2"/>
+    <col min="16" max="16" width="9.1640625" style="2"/>
+    <col min="17" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="2"/>
     <col min="19" max="19" width="9.1640625" style="2" customWidth="1"/>
     <col min="20" max="23" width="9.1640625" style="2"/>
     <col min="24" max="24" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1640625" style="2"/>
+    <col min="25" max="25" width="9.1640625" style="2"/>
+    <col min="26" max="26" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5922,10 +5999,10 @@
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5933,10 +6010,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -5944,7 +6021,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="96" t="s">
         <v>1</v>
       </c>
       <c r="U2" s="4"/>
@@ -5966,1187 +6043,1235 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:36" s="83" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="99"/>
+      <c r="J3" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="99"/>
+      <c r="S3" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="AD3" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="31" t="s">
-        <v>22</v>
+      <c r="AI3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="94" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="21">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="57">
         <v>3.8</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <f t="shared" ref="D4:D16" si="0">C4/$X$32</f>
         <v>4.2222222222222223E-2</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="35">
         <f>((D4/($X$32+$Y$32))^2+((D4+$A$7)/$X$32)^2)^0.5</f>
         <v>6.0427286189751201E-3</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>4.2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <f t="shared" ref="G4:G16" si="1">F4/1.001</f>
         <v>4.1958041958041967</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="1"/>
       <c r="J4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="67">
+        <v>16</v>
+      </c>
+      <c r="K4" s="55">
         <v>2</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="19">
         <v>1.9</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="34">
         <f>L4/90</f>
         <v>2.1111111111111112E-2</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="35">
         <f>((M4/($X$32+$Y$32))^2+((M4+$J$7)/$X$32)^2)^0.5</f>
         <v>5.7948205706175315E-3</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="20">
         <v>1.4</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="24">
         <f t="shared" ref="P4:P16" si="2">O4/1.001</f>
         <v>1.3986013986013988</v>
       </c>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="27">
+        <v>12.4</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="21">
+        <v>16</v>
+      </c>
+      <c r="T4" s="18">
         <v>2</v>
       </c>
-      <c r="U4" s="70">
+      <c r="U4" s="57">
         <v>1.7</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="34">
         <f>U4/90</f>
         <v>1.8888888888888889E-2</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="35">
         <f>((V4/($X$32+$Y$32))^2+((V4+$S$7)/$X$32)^2)^0.5</f>
         <v>7.9337827403024844E-4</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="20">
         <v>1.3</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="24">
         <f>X4/1.001</f>
         <v>1.2987012987012989</v>
       </c>
-      <c r="Z4" s="32"/>
+      <c r="Z4" s="27">
+        <v>12.6</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="67">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="55">
         <v>2</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="19">
         <v>2.25</v>
       </c>
-      <c r="AF4" s="41">
+      <c r="AF4" s="34">
         <f>AE4/90</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG4" s="42">
+      <c r="AG4" s="35">
         <f>((AF4/($X$32+$Y$32))^2+((AF4+$J$7)/$X$32)^2)^0.5</f>
         <v>5.8398705486267192E-3</v>
       </c>
-      <c r="AH4" s="23">
+      <c r="AH4" s="20">
         <v>1.9</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AI4" s="24">
         <f t="shared" ref="AI4" si="3">AH4/1.001</f>
         <v>1.8981018981018982</v>
       </c>
-      <c r="AJ4" s="32"/>
+      <c r="AJ4" s="27"/>
     </row>
     <row r="5" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
+      <c r="A5" s="59">
         <v>0.05</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="58">
         <v>7</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="34">
         <f t="shared" si="0"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="35">
         <f t="shared" ref="E4:E16" si="4">((D5/($X$32+$Y$32))^2+((D5+$A$7)/$X$32)^2)^0.5</f>
         <v>6.477023815984439E-3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>6.8</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="25">
         <f t="shared" si="1"/>
         <v>6.7932067932067941</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="73">
+      <c r="J5" s="59">
         <v>0.05</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="33"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="73">
+      <c r="S5" s="59">
         <v>0.05</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="33"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="28"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="73">
+      <c r="AC5" s="59">
         <v>0.05</v>
       </c>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="33"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="28"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="24">
+        <v>6</v>
+      </c>
+      <c r="B6" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="58">
         <v>7.7</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="34">
         <f t="shared" si="0"/>
         <v>8.5555555555555551E-2</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="35">
         <f t="shared" si="4"/>
         <v>6.5744962151050457E-3</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>7.5</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="25">
         <f t="shared" si="1"/>
         <v>7.4925074925074933</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="1"/>
       <c r="J6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="68">
+        <v>6</v>
+      </c>
+      <c r="K6" s="56">
         <v>4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>4.05</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="34">
         <f t="shared" ref="M6:M16" si="5">L6/90</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="35">
         <f>((M6/($X$32+$Y$32))^2+((M6+$J$7)/$X$32)^2)^0.5</f>
         <v>6.0759360008565948E-3</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="23">
         <v>3.5</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="25">
         <f t="shared" si="2"/>
         <v>3.4965034965034967</v>
       </c>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="28">
+        <v>12.3</v>
+      </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="24">
+      <c r="S6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="21">
         <v>4</v>
       </c>
-      <c r="U6" s="71">
+      <c r="U6" s="58">
         <v>2.6</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V6" s="34">
         <f t="shared" ref="V6:V16" si="6">U6/90</f>
         <v>2.8888888888888891E-2</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="35">
         <f>((V6/($X$32+$Y$32))^2+((V6+$S$7)/$X$32)^2)^0.5</f>
         <v>9.328589019733215E-4</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="23">
         <v>2.5</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="25">
         <f t="shared" ref="Y4:Y16" si="7">X6/1.001</f>
         <v>2.4975024975024978</v>
       </c>
-      <c r="Z6" s="33"/>
+      <c r="Z6" s="28">
+        <v>12.1</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="68">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="56">
         <v>4</v>
       </c>
-      <c r="AE6" s="25">
+      <c r="AE6" s="22">
         <v>4</v>
       </c>
-      <c r="AF6" s="41">
+      <c r="AF6" s="34">
         <f t="shared" ref="AF6:AF16" si="8">AE6/90</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AG6" s="35">
         <f>((AF6/($X$32+$Y$32))^2+((AF6+$J$7)/$X$32)^2)^0.5</f>
         <v>6.069284085428844E-3</v>
       </c>
-      <c r="AH6" s="26">
+      <c r="AH6" s="23">
         <v>3.9</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AI6" s="25">
         <f t="shared" ref="AI6" si="9">AH6/1.001</f>
         <v>3.8961038961038965</v>
       </c>
-      <c r="AJ6" s="33"/>
+      <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="59">
         <v>0.5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="58">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="34">
         <f t="shared" si="0"/>
         <v>0.10222222222222221</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <f t="shared" si="4"/>
         <v>6.7860227066590655E-3</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>8.6</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="25">
         <f t="shared" si="1"/>
         <v>8.5914085914085927</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="73">
+      <c r="J7" s="59">
         <v>0.5</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="33"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="73">
+      <c r="S7" s="59">
         <v>0.05</v>
       </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="33"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="28"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="73">
+      <c r="AC7" s="59">
         <v>0.5</v>
       </c>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="33"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="28"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="58">
         <v>10.3</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="34">
         <f t="shared" si="0"/>
         <v>0.11444444444444445</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="35">
         <f t="shared" si="4"/>
         <v>6.9432904095792615E-3</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <v>10.6</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="25">
         <f t="shared" si="1"/>
         <v>10.589410589410591</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="68">
+      <c r="K8" s="56">
         <v>6</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="34">
         <f t="shared" si="5"/>
         <v>4.5555555555555551E-2</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="35">
         <f>((M8/($X$32+$Y$32))^2+((M8+$J$7)/$X$32)^2)^0.5</f>
         <v>6.0825931015818305E-3</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="23">
         <v>4</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="25">
         <f t="shared" si="2"/>
         <v>3.9960039960039966</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="28">
+        <v>12.5</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="T8" s="24">
+      <c r="T8" s="21">
         <v>6</v>
       </c>
-      <c r="U8" s="71">
+      <c r="U8" s="58">
         <v>5.4</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="34">
         <f t="shared" si="6"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="35">
         <f>((V8/($X$32+$Y$32))^2+((V8+$S$7)/$X$32)^2)^0.5</f>
         <v>1.3904582636195852E-3</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="23">
         <v>5.3</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="25">
         <f t="shared" si="7"/>
         <v>5.2947052947052953</v>
       </c>
-      <c r="Z8" s="33"/>
+      <c r="Z8" s="28">
+        <v>12.1</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="68">
+      <c r="AD8" s="56">
         <v>6</v>
       </c>
-      <c r="AE8" s="25">
+      <c r="AE8" s="22">
         <v>4.8</v>
       </c>
-      <c r="AF8" s="41">
+      <c r="AF8" s="34">
         <f t="shared" si="8"/>
         <v>5.333333333333333E-2</v>
       </c>
-      <c r="AG8" s="42">
+      <c r="AG8" s="35">
         <f>((AF8/($X$32+$Y$32))^2+((AF8+$J$7)/$X$32)^2)^0.5</f>
         <v>6.1763275548109963E-3</v>
       </c>
-      <c r="AH8" s="26">
+      <c r="AH8" s="23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI8" s="29">
+      <c r="AI8" s="25">
         <f t="shared" ref="AI8" si="10">AH8/1.001</f>
         <v>4.5954045954045952</v>
       </c>
-      <c r="AJ8" s="33"/>
+      <c r="AJ8" s="28"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="58">
         <v>15.4</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="34">
         <f t="shared" si="0"/>
         <v>0.1711111111111111</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <f t="shared" si="4"/>
         <v>7.6927615850807271E-3</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="23">
         <v>15.3</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="25">
         <f t="shared" si="1"/>
         <v>15.284715284715286</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="28">
+        <v>11.7</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="33"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="28"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="33"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="33"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="28"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="58">
         <v>16.8</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="34">
         <f t="shared" si="0"/>
         <v>0.18666666666666668</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <f t="shared" si="4"/>
         <v>7.9035200601623289E-3</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>16.600000000000001</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="25">
         <f t="shared" si="1"/>
         <v>16.583416583416586</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="28">
+        <v>12.2</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="68">
+      <c r="K10" s="56">
         <v>8</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="34">
         <f t="shared" si="5"/>
         <v>9.1111111111111101E-2</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="35">
         <f>((M10/($X$32+$Y$32))^2+((M10+$J$7)/$X$32)^2)^0.5</f>
         <v>6.6446126631047103E-3</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="23">
         <v>7.9</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="25">
         <f t="shared" si="2"/>
         <v>7.8921078921078935</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="28">
+        <v>12.6</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="24">
+      <c r="T10" s="21">
         <v>8</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="58">
         <v>6.8</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="34">
         <f t="shared" si="6"/>
         <v>7.5555555555555556E-2</v>
       </c>
-      <c r="W10" s="42">
+      <c r="W10" s="35">
         <f>((V10/($X$32+$Y$32))^2+((V10+$S$7)/$X$32)^2)^0.5</f>
         <v>1.6257926780979199E-3</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="23">
         <v>6.8</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="25">
         <f t="shared" si="7"/>
         <v>6.7932067932067941</v>
       </c>
-      <c r="Z10" s="33"/>
+      <c r="Z10" s="28">
+        <v>12.4</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="68">
+      <c r="AD10" s="56">
         <v>8</v>
       </c>
-      <c r="AE10" s="25">
+      <c r="AE10" s="22">
         <v>4.8</v>
       </c>
-      <c r="AF10" s="41">
+      <c r="AF10" s="34">
         <f t="shared" si="8"/>
         <v>5.333333333333333E-2</v>
       </c>
-      <c r="AG10" s="42">
+      <c r="AG10" s="35">
         <f>((AF10/($X$32+$Y$32))^2+((AF10+$J$7)/$X$32)^2)^0.5</f>
         <v>6.1763275548109963E-3</v>
       </c>
-      <c r="AH10" s="26">
+      <c r="AH10" s="23">
         <v>4.7</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AI10" s="25">
         <f t="shared" ref="AI10" si="11">AH10/1.001</f>
         <v>4.6953046953046957</v>
       </c>
-      <c r="AJ10" s="33"/>
+      <c r="AJ10" s="28"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="58">
         <v>17.7</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="34">
         <f t="shared" si="0"/>
         <v>0.19666666666666666</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="35">
         <f t="shared" si="4"/>
         <v>8.039992814217016E-3</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <v>17.600000000000001</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="25">
         <f t="shared" si="1"/>
         <v>17.582417582417587</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="28">
+        <v>12.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="33"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="28"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="33"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="28"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="33"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="28"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="58">
         <v>17.8</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="34">
         <f t="shared" si="0"/>
         <v>0.19777777777777777</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <f t="shared" si="4"/>
         <v>8.0552019001696572E-3</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <v>17.600000000000001</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="25">
         <f t="shared" si="1"/>
         <v>17.582417582417587</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="28">
+        <v>12.7</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="68">
+      <c r="K12" s="56">
         <v>10</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="22">
         <v>9</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="34">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="35">
         <f>((M12/($X$32+$Y$32))^2+((M12+$J$7)/$X$32)^2)^0.5</f>
         <v>6.7576185446859742E-3</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="23">
         <v>9</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="25">
         <f t="shared" si="2"/>
         <v>8.9910089910089912</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="28">
+        <v>12.9</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="24">
+      <c r="T12" s="21">
         <v>10</v>
       </c>
-      <c r="U12" s="71">
+      <c r="U12" s="58">
         <v>7.9</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="34">
         <f t="shared" si="6"/>
         <v>8.7777777777777788E-2</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="35">
         <f>((V12/($X$32+$Y$32))^2+((V12+$S$7)/$X$32)^2)^0.5</f>
         <v>1.8122611232223463E-3</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="23">
         <v>7.8</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="25">
         <f t="shared" si="7"/>
         <v>7.792207792207793</v>
       </c>
-      <c r="Z12" s="33"/>
+      <c r="Z12" s="28">
+        <v>12.4</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="68">
+      <c r="AD12" s="56">
         <v>10</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="22">
         <v>10.199999999999999</v>
       </c>
-      <c r="AF12" s="41">
+      <c r="AF12" s="34">
         <f t="shared" si="8"/>
         <v>0.11333333333333333</v>
       </c>
-      <c r="AG12" s="42">
+      <c r="AG12" s="35">
         <f>((AF12/($X$32+$Y$32))^2+((AF12+$J$7)/$X$32)^2)^0.5</f>
         <v>6.9289220896181893E-3</v>
       </c>
-      <c r="AH12" s="26">
+      <c r="AH12" s="23">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AI12" s="29">
+      <c r="AI12" s="25">
         <f t="shared" ref="AI12" si="12">AH12/1.001</f>
         <v>9.6903096903096912</v>
       </c>
-      <c r="AJ12" s="33"/>
+      <c r="AJ12" s="28"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="58">
         <v>21.2</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="34">
         <f t="shared" si="0"/>
         <v>0.23555555555555555</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="35">
         <f t="shared" si="4"/>
         <v>8.5772954608509949E-3</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>21.2</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="25">
         <f t="shared" si="1"/>
         <v>21.178821178821181</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="28">
+        <v>13</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="33"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="28"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="33"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="28"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="33"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="28"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="58">
         <v>25.9</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="34">
         <f t="shared" si="0"/>
         <v>0.28777777777777774</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="35">
         <f t="shared" si="4"/>
         <v>9.3127902885249674E-3</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="23">
         <v>25.7</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="25">
         <f t="shared" si="1"/>
         <v>25.674325674325676</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="28">
+        <v>13.2</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="68">
+      <c r="K14" s="56">
         <v>12</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="22">
         <v>10.9</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="34">
         <f t="shared" si="5"/>
         <v>0.12111111111111111</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="35">
         <f>((M14/($X$32+$Y$32))^2+((M14+$J$7)/$X$32)^2)^0.5</f>
         <v>7.0297892163048705E-3</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="23">
         <v>10.9</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="25">
         <f t="shared" si="2"/>
         <v>10.88911088911089</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="28">
+        <v>12.9</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="24">
+      <c r="T14" s="21">
         <v>12</v>
       </c>
-      <c r="U14" s="71">
+      <c r="U14" s="58">
         <v>8.9</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="34">
         <f t="shared" si="6"/>
         <v>9.8888888888888887E-2</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="35">
         <f>((V14/($X$32+$Y$32))^2+((V14+$S$7)/$X$32)^2)^0.5</f>
         <v>1.9826144570434887E-3</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="23">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="25">
         <f t="shared" si="7"/>
         <v>8.6913086913086914</v>
       </c>
-      <c r="Z14" s="33"/>
+      <c r="Z14" s="28">
+        <v>12.5</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="68">
+      <c r="AD14" s="56">
         <v>12</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AE14" s="22">
         <v>10.9</v>
       </c>
-      <c r="AF14" s="41">
+      <c r="AF14" s="34">
         <f t="shared" si="8"/>
         <v>0.12111111111111111</v>
       </c>
-      <c r="AG14" s="42">
+      <c r="AG14" s="35">
         <f>((AF14/($X$32+$Y$32))^2+((AF14+$J$7)/$X$32)^2)^0.5</f>
         <v>7.0297892163048705E-3</v>
       </c>
-      <c r="AH14" s="26">
+      <c r="AH14" s="23">
         <v>13.2</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="25">
         <f t="shared" ref="AI14:AI16" si="13">AH14/1.001</f>
         <v>13.186813186813188</v>
       </c>
-      <c r="AJ14" s="33"/>
+      <c r="AJ14" s="28"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>14</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="58">
         <v>31.5</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="34">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="35">
         <f t="shared" si="4"/>
         <v>1.0205603326821473E-2</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <v>31.3</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="25">
         <f t="shared" si="1"/>
         <v>31.268731268731273</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="28">
+        <v>13.5</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="68">
+      <c r="K15" s="56">
         <v>14</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="22">
         <v>14.05</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="34">
         <f t="shared" si="5"/>
         <v>0.15611111111111112</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="35">
         <f>((M15/($X$32+$Y$32))^2+((M15+$J$7)/$X$32)^2)^0.5</f>
         <v>7.4914265710133007E-3</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="23">
         <v>13.9</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="25">
         <f t="shared" si="2"/>
         <v>13.886113886113888</v>
       </c>
-      <c r="Q15" s="33"/>
+      <c r="Q15" s="28">
+        <v>12.9</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="24">
+      <c r="T15" s="21">
         <v>14</v>
       </c>
-      <c r="U15" s="71">
+      <c r="U15" s="58">
         <v>10.050000000000001</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="34">
         <f t="shared" si="6"/>
         <v>0.11166666666666668</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="35">
         <f>((V15/($X$32+$Y$32))^2+((V15+$S$7)/$X$32)^2)^0.5</f>
         <v>2.1792555150103999E-3</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="23">
         <v>10</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="25">
         <f t="shared" si="7"/>
         <v>9.990009990009991</v>
       </c>
-      <c r="Z15" s="33"/>
+      <c r="Z15" s="28">
+        <v>12.4</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="68">
+      <c r="AD15" s="56">
         <v>14</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AE15" s="22">
         <v>14.05</v>
       </c>
-      <c r="AF15" s="41">
+      <c r="AF15" s="34">
         <f t="shared" si="8"/>
         <v>0.15611111111111112</v>
       </c>
-      <c r="AG15" s="42">
+      <c r="AG15" s="35">
         <f>((AF15/($X$32+$Y$32))^2+((AF15+$J$7)/$X$32)^2)^0.5</f>
         <v>7.4914265710133007E-3</v>
       </c>
-      <c r="AH15" s="26">
+      <c r="AH15" s="23">
         <v>13.9</v>
       </c>
-      <c r="AI15" s="29">
+      <c r="AI15" s="25">
         <f t="shared" si="13"/>
         <v>13.886113886113888</v>
       </c>
-      <c r="AJ15" s="33"/>
+      <c r="AJ15" s="28"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>16</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="58">
         <v>36.9</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="34">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="35">
         <f t="shared" si="4"/>
         <v>1.1079664792682402E-2</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>36.5</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="26">
         <f t="shared" si="1"/>
         <v>36.463536463536471</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="28">
+        <v>13.6</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="68">
+      <c r="K16" s="56">
         <v>16</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="22">
         <v>18</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="34">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="35">
         <f>((M16/($X$32+$Y$32))^2+((M16+$J$7)/$X$32)^2)^0.5</f>
         <v>8.0856467251946649E-3</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="23">
         <v>17.3</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="26">
         <f t="shared" si="2"/>
         <v>17.282717282717286</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="28">
+        <v>12.8</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="24">
+      <c r="T16" s="21">
         <v>16</v>
       </c>
-      <c r="U16" s="71">
+      <c r="U16" s="58">
         <v>13.4</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="34">
         <f t="shared" si="6"/>
         <v>0.1488888888888889</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="35">
         <f>((V16/($X$32+$Y$32))^2+((V16+$S$7)/$X$32)^2)^0.5</f>
         <v>2.7550272528579526E-3</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="23">
         <v>13.5</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="26">
         <f t="shared" si="7"/>
         <v>13.486513486513488</v>
       </c>
-      <c r="Z16" s="33"/>
+      <c r="Z16" s="28">
+        <v>12.5</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="68">
+      <c r="AD16" s="56">
         <v>16</v>
       </c>
-      <c r="AE16" s="25">
+      <c r="AE16" s="22">
         <v>18</v>
       </c>
-      <c r="AF16" s="41">
+      <c r="AF16" s="34">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="AG16" s="42">
+      <c r="AG16" s="35">
         <f>((AF16/($X$32+$Y$32))^2+((AF16+$J$7)/$X$32)^2)^0.5</f>
         <v>8.0856467251946649E-3</v>
       </c>
-      <c r="AH16" s="26">
+      <c r="AH16" s="23">
         <v>17.3</v>
       </c>
-      <c r="AI16" s="30">
+      <c r="AI16" s="26">
         <f t="shared" si="13"/>
         <v>17.282717282717286</v>
       </c>
-      <c r="AJ16" s="33"/>
+      <c r="AJ16" s="28"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -7183,7 +7308,7 @@
     <row r="18" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -7214,133 +7339,133 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="50" t="s">
+    <row r="19" spans="1:33" s="83" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="C19" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="50" t="s">
+      <c r="P19" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="Q19" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
     </row>
     <row r="20" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="44">
+      <c r="B20" s="36">
         <v>2</v>
       </c>
-      <c r="C20" s="49">
-        <f>(PI()*$X$21*$X$22*B20*$X$27^4)/(8*$X$30*$F$38*100)*10^6</f>
-        <v>4.584138413709838E-2</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="C20" s="40">
+        <f>(PI()*$X$21*$X$22*B20*$X$27^4)/(8*$X$30*$X$31*100)*10^6</f>
+        <v>7.897251651043373E-2</v>
+      </c>
+      <c r="D20" s="41">
         <f t="shared" ref="D20:D30" si="14">D4-C20</f>
-        <v>-3.6191619148761567E-3</v>
-      </c>
-      <c r="E20" s="54">
+        <v>-3.6750294288211506E-2</v>
+      </c>
+      <c r="E20" s="44">
         <f>D20/E4</f>
-        <v>-0.59892842175824645</v>
-      </c>
-      <c r="F20" s="56">
+        <v>-6.0817383347002858</v>
+      </c>
+      <c r="F20" s="46">
         <f>E20^2</f>
-        <v>0.35871525438982393</v>
+        <v>36.987541171763006</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="44">
+      <c r="I20" s="36">
         <v>2</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="40">
         <f>(PI()*$X$21*$X$22*I20*$X$26^4)/(8*$X$29*$M$38*100)*10^6</f>
         <v>2.1854055479156476E-2</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="51">
         <f>M4-J20</f>
         <v>-7.4294436804536387E-4</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="44">
         <f>K20/N4</f>
         <v>-0.12820834726314764</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="46">
         <f>L20^2</f>
         <v>1.6437380307947856E-2</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="44">
+      <c r="P20" s="36">
         <v>2</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="40">
         <f>(PI()*$X$21*$X$22*P20*$X$25^4)/(8*$X$28*$T$38*100)*10^6</f>
         <v>1.7360770214270259E-2</v>
       </c>
-      <c r="R20" s="63">
+      <c r="R20" s="51">
         <f>Q20-V4</f>
         <v>-1.5281186746186302E-3</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="44">
         <f>R20/W4</f>
         <v>-1.9260909009469158</v>
       </c>
-      <c r="T20" s="56">
+      <c r="T20" s="46">
         <f>S20^2</f>
         <v>3.7098261587105017</v>
       </c>
@@ -7363,43 +7488,43 @@
     </row>
     <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="45">
+      <c r="B21" s="37">
         <v>3</v>
       </c>
-      <c r="C21" s="49">
-        <f t="shared" ref="C21:C34" si="15">(PI()*$X$21*$X$22*B21*$X$27^4)/(8*$X$30*$F$38*100)*10^6</f>
+      <c r="C21" s="40">
+        <f>(PI()*$X$21*$X$22*B21*$X$27^4)/(8*$X$30*$F$38*100)*10^6</f>
         <v>6.876207620564756E-2</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="42">
         <f t="shared" si="14"/>
         <v>9.0157015721302192E-3</v>
       </c>
-      <c r="E21" s="55">
-        <f t="shared" ref="E20:E30" si="16">D21/E5</f>
+      <c r="E21" s="45">
+        <f t="shared" ref="E20:E30" si="15">D21/E5</f>
         <v>1.3919512770480569</v>
       </c>
-      <c r="F21" s="57">
-        <f t="shared" ref="F21:F34" si="17">E21^2</f>
+      <c r="F21" s="47">
+        <f t="shared" ref="F21:F34" si="16">E21^2</f>
         <v>1.9375283576757163</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="57"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="57"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="47"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X21" s="8">
         <v>1001</v>
@@ -7415,71 +7540,71 @@
     </row>
     <row r="22" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="45">
+      <c r="B22" s="37">
         <v>4</v>
       </c>
-      <c r="C22" s="49">
-        <f t="shared" si="15"/>
+      <c r="C22" s="40">
+        <f t="shared" ref="C22:C34" si="17">(PI()*$X$21*$X$22*B22*$X$27^4)/(8*$X$30*$F$38*100)*10^6</f>
         <v>9.168276827419676E-2</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="42">
         <f t="shared" si="14"/>
         <v>-6.127212718641209E-3</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="45">
+        <f t="shared" si="15"/>
+        <v>-0.93196687900797737</v>
+      </c>
+      <c r="F22" s="47">
         <f t="shared" si="16"/>
-        <v>-0.93196687900797737</v>
-      </c>
-      <c r="F22" s="57">
-        <f t="shared" si="17"/>
         <v>0.86856226356786992</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="45">
+      <c r="I22" s="37">
         <v>4</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="40">
         <f t="shared" ref="J22:J34" si="18">(PI()*$X$21*$X$22*I22*$X$26^4)/(8*$X$29*$M$38*100)*10^6</f>
         <v>4.3708110958312951E-2</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="53">
         <f>M6-J22</f>
         <v>1.2918890416870471E-3</v>
       </c>
-      <c r="L22" s="55">
+      <c r="L22" s="45">
         <f>K22/N6</f>
         <v>0.2126238725202034</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="47">
         <f t="shared" ref="M22:M34" si="19">L22^2</f>
         <v>4.5208911165487704E-2</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="45">
+      <c r="P22" s="37">
         <v>4</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="40">
         <f t="shared" ref="Q21:Q35" si="20">(PI()*$X$21*$X$22*P22*$X$25^4)/(8*$X$28*$T$38*100)*10^6</f>
         <v>3.4721540428540518E-2</v>
       </c>
-      <c r="R22" s="66">
+      <c r="R22" s="54">
         <f>Q22-V6</f>
         <v>5.8326515396516267E-3</v>
       </c>
-      <c r="S22" s="64">
+      <c r="S22" s="52">
         <f>R22/W6</f>
         <v>6.2524477467208994</v>
       </c>
-      <c r="T22" s="57">
+      <c r="T22" s="47">
         <f t="shared" ref="T22:T34" si="21">S22^2</f>
         <v>39.093102825475249</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X22" s="8">
         <v>9.8070000000000004</v>
@@ -7495,43 +7620,43 @@
     </row>
     <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="45">
+      <c r="B23" s="37">
         <v>5</v>
       </c>
-      <c r="C23" s="49">
-        <f t="shared" si="15"/>
+      <c r="C23" s="40">
+        <f t="shared" si="17"/>
         <v>0.11460346034274595</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="42">
         <f t="shared" si="14"/>
         <v>-1.2381238120523733E-2</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="45">
+        <f t="shared" si="15"/>
+        <v>-1.8245205852868913</v>
+      </c>
+      <c r="F23" s="47">
         <f t="shared" si="16"/>
-        <v>-1.8245205852868913</v>
-      </c>
-      <c r="F23" s="57">
-        <f t="shared" si="17"/>
         <v>3.3288753661356205</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="57"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="57"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="47"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X23" s="8">
         <v>0.18</v>
@@ -7542,78 +7667,78 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="45">
+      <c r="B24" s="37">
         <v>6</v>
       </c>
-      <c r="C24" s="49">
-        <f t="shared" si="15"/>
+      <c r="C24" s="40">
+        <f t="shared" si="17"/>
         <v>0.13752415241129512</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="42">
         <f t="shared" si="14"/>
         <v>-2.3079707966850674E-2</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="45">
+        <f t="shared" si="15"/>
+        <v>-3.3240303379805227</v>
+      </c>
+      <c r="F24" s="47">
         <f t="shared" si="16"/>
-        <v>-3.3240303379805227</v>
-      </c>
-      <c r="F24" s="57">
-        <f t="shared" si="17"/>
         <v>11.049177687814908</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="45">
+      <c r="I24" s="37">
         <v>6</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="40">
         <f t="shared" si="18"/>
         <v>6.5562166437469413E-2</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="53">
         <f>M8-J24</f>
         <v>-2.0006610881913862E-2</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="45">
         <f>K24/N8</f>
         <v>-3.2891581843130311</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="47">
         <f t="shared" si="19"/>
         <v>10.818561561433395</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="45">
+      <c r="P24" s="37">
         <v>6</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="40">
         <f t="shared" si="20"/>
         <v>5.208231064281079E-2</v>
       </c>
-      <c r="R24" s="66">
+      <c r="R24" s="54">
         <f>Q24-V8</f>
         <v>-7.9176893571892143E-3</v>
       </c>
-      <c r="S24" s="64">
+      <c r="S24" s="52">
         <f>R24/W8</f>
         <v>-5.6943020616657725</v>
       </c>
-      <c r="T24" s="57">
+      <c r="T24" s="47">
         <f t="shared" si="21"/>
         <v>32.425075969491068</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X24" s="8">
         <v>4.0099999999999997E-2</v>
@@ -7623,63 +7748,63 @@
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB24" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC24" s="73" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="AB24" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC24" s="59" t="s">
+        <v>30</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG24" s="34" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="AF24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG24" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="45">
+      <c r="B25" s="37">
         <v>7</v>
       </c>
-      <c r="C25" s="49">
-        <f t="shared" si="15"/>
+      <c r="C25" s="40">
+        <f t="shared" si="17"/>
         <v>0.16044484447984428</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="42">
         <f t="shared" si="14"/>
         <v>1.0666266631266824E-2</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="45">
+        <f t="shared" si="15"/>
+        <v>1.3865328482235673</v>
+      </c>
+      <c r="F25" s="47">
         <f t="shared" si="16"/>
-        <v>1.3865328482235673</v>
-      </c>
-      <c r="F25" s="57">
-        <f t="shared" si="17"/>
         <v>1.9224733392029578</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="57"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="57"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X25" s="12">
         <f>50*0.00001</f>
@@ -7691,87 +7816,87 @@
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="81">
+      <c r="AB25" s="67">
         <v>65</v>
       </c>
-      <c r="AC25" s="78">
+      <c r="AC25" s="64">
         <v>65</v>
       </c>
       <c r="AD25" s="1"/>
-      <c r="AF25" s="82">
+      <c r="AF25" s="68">
         <v>52</v>
       </c>
-      <c r="AG25" s="83">
+      <c r="AG25" s="69">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="45">
+      <c r="B26" s="37">
         <v>8</v>
       </c>
-      <c r="C26" s="49">
-        <f t="shared" si="15"/>
+      <c r="C26" s="40">
+        <f t="shared" si="17"/>
         <v>0.18336553654839352</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="42">
         <f t="shared" si="14"/>
         <v>3.3011301182731545E-3</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="45">
+        <f t="shared" si="15"/>
+        <v>0.4176784639179309</v>
+      </c>
+      <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>0.4176784639179309</v>
-      </c>
-      <c r="F26" s="57">
-        <f t="shared" si="17"/>
         <v>0.1744552992208423</v>
       </c>
-      <c r="G26" s="47"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="45">
+      <c r="I26" s="37">
         <v>8</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="40">
         <f t="shared" si="18"/>
         <v>8.7416221916625902E-2</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="53">
         <f>M10-J26</f>
         <v>3.6948891944851986E-3</v>
       </c>
-      <c r="L26" s="55">
+      <c r="L26" s="45">
         <f>K26/N10</f>
         <v>0.55607292431079847</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="47">
         <f t="shared" si="19"/>
         <v>0.30921709715156298</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="45">
+      <c r="P26" s="37">
         <v>8</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="40">
         <f t="shared" si="20"/>
         <v>6.9443080857081035E-2</v>
       </c>
-      <c r="R26" s="66">
+      <c r="R26" s="54">
         <f>Q26-V10</f>
         <v>-6.112474698474521E-3</v>
       </c>
-      <c r="S26" s="64">
+      <c r="S26" s="52">
         <f>R26/W10</f>
         <v>-3.7596889079521199</v>
       </c>
-      <c r="T26" s="57">
+      <c r="T26" s="47">
         <f t="shared" si="21"/>
         <v>14.135260684578203</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X26" s="12">
         <f>52*0.00001</f>
@@ -7782,59 +7907,59 @@
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="81">
+      <c r="AB26" s="67">
         <v>66</v>
       </c>
-      <c r="AC26" s="78">
+      <c r="AC26" s="64">
         <v>61</v>
       </c>
       <c r="AD26" s="1"/>
-      <c r="AF26" s="82">
+      <c r="AF26" s="68">
         <v>50</v>
       </c>
-      <c r="AG26" s="83">
+      <c r="AG26" s="69">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="45">
+      <c r="B27" s="37">
         <v>9</v>
       </c>
-      <c r="C27" s="49">
-        <f t="shared" si="15"/>
+      <c r="C27" s="40">
+        <f t="shared" si="17"/>
         <v>0.20628622861694271</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="42">
         <f t="shared" si="14"/>
         <v>-9.619561950276051E-3</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="45">
+        <f t="shared" si="15"/>
+        <v>-1.1964639984834193</v>
+      </c>
+      <c r="F27" s="47">
         <f t="shared" si="16"/>
-        <v>-1.1964639984834193</v>
-      </c>
-      <c r="F27" s="57">
-        <f t="shared" si="17"/>
         <v>1.4315260996669317</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="57"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="47"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="57"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="47"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X27" s="12">
         <f>65*0.00001</f>
@@ -7845,239 +7970,239 @@
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="81">
+      <c r="AB27" s="67">
         <v>68</v>
       </c>
-      <c r="AC27" s="78">
+      <c r="AC27" s="64">
         <v>65</v>
       </c>
       <c r="AD27" s="1"/>
-      <c r="AF27" s="82">
+      <c r="AF27" s="68">
         <v>53</v>
       </c>
-      <c r="AG27" s="83">
+      <c r="AG27" s="69">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="45">
+      <c r="B28" s="37">
         <v>10</v>
       </c>
-      <c r="C28" s="49">
-        <f t="shared" si="15"/>
+      <c r="C28" s="40">
+        <f t="shared" si="17"/>
         <v>0.22920692068549189</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="42">
         <f t="shared" si="14"/>
         <v>-3.1429142907714119E-2</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="45">
+        <f t="shared" si="15"/>
+        <v>-3.901720068252065</v>
+      </c>
+      <c r="F28" s="47">
         <f t="shared" si="16"/>
-        <v>-3.901720068252065</v>
-      </c>
-      <c r="F28" s="57">
-        <f t="shared" si="17"/>
         <v>15.223419491000898</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="45">
+      <c r="I28" s="37">
         <v>10</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="40">
         <f t="shared" si="18"/>
         <v>0.10927027739578239</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="53">
         <f>M12-J28</f>
         <v>-9.2702773957823864E-3</v>
       </c>
-      <c r="L28" s="55">
+      <c r="L28" s="45">
         <f>K28/N12</f>
         <v>-1.3718260855478897</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="47">
         <f t="shared" si="19"/>
         <v>1.8819068089896458</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="45">
+      <c r="P28" s="37">
         <v>10</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="40">
         <f t="shared" si="20"/>
         <v>8.6803851071351315E-2</v>
       </c>
-      <c r="R28" s="66">
+      <c r="R28" s="54">
         <f>Q28-V12</f>
         <v>-9.7392670642647283E-4</v>
       </c>
-      <c r="S28" s="64">
+      <c r="S28" s="52">
         <f>R28/W12</f>
         <v>-0.53740969993041221</v>
       </c>
-      <c r="T28" s="57">
+      <c r="T28" s="47">
         <f t="shared" si="21"/>
         <v>0.28880918557929569</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="34" t="s">
-        <v>25</v>
+      <c r="W28" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="X28" s="8">
         <v>0.154</v>
       </c>
-      <c r="Y28" s="35">
+      <c r="Y28" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="81">
+      <c r="AB28" s="67">
         <v>66</v>
       </c>
-      <c r="AC28" s="78">
+      <c r="AC28" s="64">
         <v>68</v>
       </c>
       <c r="AD28" s="1"/>
-      <c r="AF28" s="82">
+      <c r="AF28" s="68">
         <v>53</v>
       </c>
-      <c r="AG28" s="83">
+      <c r="AG28" s="69">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="45">
+      <c r="B29" s="37">
         <v>11</v>
       </c>
-      <c r="C29" s="49">
-        <f t="shared" si="15"/>
+      <c r="C29" s="40">
+        <f t="shared" si="17"/>
         <v>0.25212761275404105</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="42">
         <f t="shared" si="14"/>
         <v>-1.6572057198485507E-2</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="45">
+        <f t="shared" si="15"/>
+        <v>-1.9320842186356622</v>
+      </c>
+      <c r="F29" s="47">
         <f t="shared" si="16"/>
-        <v>-1.9320842186356622</v>
-      </c>
-      <c r="F29" s="57">
-        <f t="shared" si="17"/>
         <v>3.7329494279009769</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="57"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="57"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="47"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="34" t="s">
-        <v>23</v>
+      <c r="W29" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="X29" s="8">
         <v>0.151</v>
       </c>
-      <c r="Y29" s="36">
+      <c r="Y29" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="80">
+      <c r="AB29" s="66">
         <v>61</v>
       </c>
-      <c r="AC29" s="78">
+      <c r="AC29" s="64">
         <v>66</v>
       </c>
       <c r="AD29" s="1"/>
-      <c r="AF29" s="84">
+      <c r="AF29" s="70">
         <v>52</v>
       </c>
-      <c r="AG29" s="85">
+      <c r="AG29" s="71">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="45">
+      <c r="B30" s="37">
         <v>12</v>
       </c>
-      <c r="C30" s="49">
-        <f t="shared" si="15"/>
+      <c r="C30" s="40">
+        <f t="shared" si="17"/>
         <v>0.27504830482259024</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="42">
         <f t="shared" si="14"/>
         <v>1.2729472955187504E-2</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="45">
+        <f t="shared" si="15"/>
+        <v>1.3668806620581271</v>
+      </c>
+      <c r="F30" s="47">
         <f t="shared" si="16"/>
-        <v>1.3668806620581271</v>
-      </c>
-      <c r="F30" s="57">
-        <f t="shared" si="17"/>
         <v>1.8683627443084638</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="45">
+      <c r="I30" s="37">
         <v>12</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="40">
         <f t="shared" si="18"/>
         <v>0.13112433287493883</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="53">
         <f>M14-J30</f>
         <v>-1.0013221763827712E-2</v>
       </c>
-      <c r="L30" s="55">
+      <c r="L30" s="45">
         <f>K30/N14</f>
         <v>-1.4243985780687531</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="47">
         <f t="shared" si="19"/>
         <v>2.0289113092042856</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="45">
+      <c r="P30" s="37">
         <v>12</v>
       </c>
-      <c r="Q30" s="49">
+      <c r="Q30" s="40">
         <f t="shared" si="20"/>
         <v>0.10416462128562158</v>
       </c>
-      <c r="R30" s="66">
+      <c r="R30" s="54">
         <f>Q30-V14</f>
         <v>5.2757323967326936E-3</v>
       </c>
-      <c r="S30" s="64">
+      <c r="S30" s="52">
         <f>R30/W14</f>
         <v>2.6609976427792033</v>
       </c>
-      <c r="T30" s="57">
+      <c r="T30" s="47">
         <f t="shared" si="21"/>
         <v>7.080908454876476</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="34" t="s">
-        <v>24</v>
+      <c r="W30" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="X30" s="8">
         <v>0.14099999999999999</v>
@@ -8087,56 +8212,56 @@
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="73">
+      <c r="AB30" s="59">
         <f>SUM(AB25:AB29)/5</f>
         <v>65.2</v>
       </c>
-      <c r="AC30" s="73">
+      <c r="AC30" s="59">
         <f t="shared" ref="AC30" si="22">SUM(AC25:AC29)/5</f>
         <v>65</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="73">
+      <c r="AF30" s="59">
         <f>SUM(AF25:AF29)/5</f>
         <v>52</v>
       </c>
-      <c r="AG30" s="73">
+      <c r="AG30" s="59">
         <f>SUM(AG25:AG29)/5</f>
         <v>48.4</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="57"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="57"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="47"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="57"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="47"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="37" t="s">
+      <c r="W31" s="32" t="s">
         <v>4</v>
       </c>
       <c r="X31" s="13">
         <v>1.2359999999999999E-3</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -8146,71 +8271,71 @@
     </row>
     <row r="32" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="45">
+      <c r="B32" s="37">
         <v>14</v>
       </c>
-      <c r="C32" s="49">
-        <f t="shared" si="15"/>
+      <c r="C32" s="40">
+        <f t="shared" si="17"/>
         <v>0.32088968895968856</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="42">
         <f>D15-C32</f>
         <v>2.9110311040311421E-2</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="45">
         <f>D32/E15</f>
         <v>2.8523851170862433</v>
       </c>
-      <c r="F32" s="57">
-        <f t="shared" si="17"/>
+      <c r="F32" s="47">
+        <f t="shared" si="16"/>
         <v>8.1361008561751014</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="45">
+      <c r="I32" s="37">
         <v>14</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="40">
         <f t="shared" si="18"/>
         <v>0.15297838835409533</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="53">
         <f>M15-J32</f>
         <v>3.1327227570157878E-3</v>
       </c>
-      <c r="L32" s="55">
+      <c r="L32" s="45">
         <f>K32/N15</f>
         <v>0.41817439273012208</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="47">
         <f t="shared" si="19"/>
         <v>0.17486982273520638</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="45">
+      <c r="P32" s="37">
         <v>14</v>
       </c>
-      <c r="Q32" s="49">
+      <c r="Q32" s="40">
         <f t="shared" si="20"/>
         <v>0.12152539149989183</v>
       </c>
-      <c r="R32" s="66">
+      <c r="R32" s="54">
         <f>Q32-V15</f>
         <v>9.8587248332251548E-3</v>
       </c>
-      <c r="S32" s="64">
+      <c r="S32" s="52">
         <f>R32/W15</f>
         <v>4.5238957824448169</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="47">
         <f t="shared" si="21"/>
         <v>20.465633050422003</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X32" s="8">
         <v>90</v>
@@ -8218,108 +8343,108 @@
       <c r="Y32" s="9">
         <v>0.5</v>
       </c>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="91"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
       <c r="AB32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC32" s="34" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="AC32" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="57"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="57"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="57"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="47"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="79">
+      <c r="AC33" s="65">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="45">
+      <c r="B34" s="37">
         <v>16</v>
       </c>
-      <c r="C34" s="49">
-        <f t="shared" si="15"/>
+      <c r="C34" s="40">
+        <f t="shared" si="17"/>
         <v>0.36673107309678704</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="42">
         <f>D16-C34</f>
         <v>4.3268926903212934E-2</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="45">
         <f>D34/E16</f>
         <v>3.9052559542947569</v>
       </c>
-      <c r="F34" s="57">
-        <f t="shared" si="17"/>
+      <c r="F34" s="47">
+        <f t="shared" si="16"/>
         <v>15.251024068554653</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="45">
+      <c r="I34" s="37">
         <v>16</v>
       </c>
-      <c r="J34" s="49">
+      <c r="J34" s="40">
         <f t="shared" si="18"/>
         <v>0.1748324438332518</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="50">
         <f>M16-J34</f>
         <v>2.5167556166748206E-2</v>
       </c>
-      <c r="L34" s="64">
+      <c r="L34" s="52">
         <f>K34/N16</f>
         <v>3.1126212932759918</v>
       </c>
-      <c r="M34" s="57">
+      <c r="M34" s="47">
         <f t="shared" si="19"/>
         <v>9.6884113153551077</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="45">
+      <c r="P34" s="37">
         <v>16</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="40">
         <f t="shared" si="20"/>
         <v>0.13888616171416207</v>
       </c>
-      <c r="R34" s="66">
+      <c r="R34" s="54">
         <f>Q34-V16</f>
         <v>-1.0002727174726833E-2</v>
       </c>
-      <c r="S34" s="64">
+      <c r="S34" s="52">
         <f>R34/W16</f>
         <v>-3.6307180498306915</v>
       </c>
-      <c r="T34" s="57">
+      <c r="T34" s="47">
         <f t="shared" si="21"/>
         <v>13.18211355736638</v>
       </c>
@@ -8328,43 +8453,43 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="79">
+      <c r="AC34" s="65">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="58"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="58"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="48"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="58"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="48"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="91"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="79">
+      <c r="AC35" s="65">
         <v>47</v>
       </c>
     </row>
@@ -8373,22 +8498,22 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="74">
+      <c r="E36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="60">
         <f>SUM(F20:F35)/11</f>
-        <v>5.9348336596013418</v>
+        <v>9.2647269248170883</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="74">
+      <c r="L36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="60">
         <f>SUM(M20:M35)/6</f>
         <v>4.1605873677237737</v>
       </c>
@@ -8396,10 +8521,10 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="T36" s="74">
+      <c r="S36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" s="60">
         <f>SUM(T20:T35)/6</f>
         <v>21.730121647749865</v>
       </c>
@@ -8408,10 +8533,10 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
+      <c r="Z36" s="77"/>
+      <c r="AA36" s="77"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="79">
+      <c r="AC36" s="65">
         <v>56</v>
       </c>
     </row>
@@ -8441,10 +8566,10 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="91"/>
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="77"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="79">
+      <c r="AC37" s="65">
         <v>56</v>
       </c>
     </row>
@@ -8454,7 +8579,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="13">
+      <c r="F38" s="107">
         <v>2.1292993709564399E-3</v>
       </c>
       <c r="G38" s="1"/>
@@ -8463,7 +8588,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="13">
+      <c r="M38" s="107">
         <v>1.70830149179768E-3</v>
       </c>
       <c r="N38" s="1"/>
@@ -8472,7 +8597,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="13">
+      <c r="T38" s="107">
         <v>1.8023969417446609E-3</v>
       </c>
       <c r="U38" s="1"/>
@@ -8480,10 +8605,10 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="91"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="77"/>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="73">
+      <c r="AC38" s="59">
         <f>SUM(AC33:AC37)/5</f>
         <v>52.4</v>
       </c>
@@ -8514,8 +8639,8 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="77"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
@@ -8970,365 +9095,365 @@
       <c r="S57" s="1"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B59" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="86"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
+      <c r="B59" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="72"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="96" t="s">
+      <c r="A60" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="96" t="s">
+      <c r="C60" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="87"/>
-      <c r="I60" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" s="96" t="s">
+      <c r="G60" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="73"/>
+      <c r="I60" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="L60" s="90"/>
+      <c r="K60" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="76"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="93">
+      <c r="B61" s="79">
         <v>2</v>
       </c>
-      <c r="C61" s="94">
+      <c r="C61" s="80">
         <v>-3.6191619148761567E-3</v>
       </c>
-      <c r="F61" s="93">
+      <c r="F61" s="79">
         <v>2</v>
       </c>
-      <c r="G61" s="94">
+      <c r="G61" s="80">
         <v>-7.4294436804536387E-4</v>
       </c>
-      <c r="H61" s="87"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="99">
+      <c r="H61" s="73"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="85">
         <v>2</v>
       </c>
-      <c r="K61" s="100">
+      <c r="K61" s="86">
         <v>-1.5281186746186302E-3</v>
       </c>
-      <c r="L61" s="90"/>
+      <c r="L61" s="76"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="93">
+      <c r="B62" s="79">
         <v>3</v>
       </c>
-      <c r="C62" s="94">
+      <c r="C62" s="80">
         <v>9.0157015721302192E-3</v>
       </c>
-      <c r="F62" s="93">
+      <c r="F62" s="79">
         <v>4</v>
       </c>
-      <c r="G62" s="94">
+      <c r="G62" s="80">
         <v>1.2918890416870471E-3</v>
       </c>
-      <c r="H62" s="87"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="93">
+      <c r="H62" s="73"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="79">
         <v>4</v>
       </c>
-      <c r="K62" s="94">
+      <c r="K62" s="80">
         <v>5.8326515396516267E-3</v>
       </c>
-      <c r="L62" s="90"/>
+      <c r="L62" s="76"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B63" s="93">
+      <c r="B63" s="79">
         <v>4</v>
       </c>
-      <c r="C63" s="94">
+      <c r="C63" s="80">
         <v>-6.127212718641209E-3</v>
       </c>
-      <c r="F63" s="93">
+      <c r="F63" s="79">
         <v>6</v>
       </c>
-      <c r="G63" s="94">
+      <c r="G63" s="80">
         <v>-2.0006610881913862E-2</v>
       </c>
-      <c r="H63" s="87"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="93">
+      <c r="H63" s="73"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="79">
         <v>6</v>
       </c>
-      <c r="K63" s="94">
+      <c r="K63" s="80">
         <v>-7.9176893571892143E-3</v>
       </c>
-      <c r="L63" s="90"/>
+      <c r="L63" s="76"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B64" s="93">
+      <c r="B64" s="79">
         <v>5</v>
       </c>
-      <c r="C64" s="94">
+      <c r="C64" s="80">
         <v>-1.2381238120523733E-2</v>
       </c>
-      <c r="F64" s="93">
+      <c r="F64" s="79">
         <v>8</v>
       </c>
-      <c r="G64" s="94">
+      <c r="G64" s="80">
         <v>3.6948891944851986E-3</v>
       </c>
-      <c r="H64" s="87"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="93">
+      <c r="H64" s="73"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="79">
         <v>8</v>
       </c>
-      <c r="K64" s="94">
+      <c r="K64" s="80">
         <v>-6.112474698474521E-3</v>
       </c>
-      <c r="L64" s="90"/>
+      <c r="L64" s="76"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="93">
+      <c r="B65" s="79">
         <v>6</v>
       </c>
-      <c r="C65" s="94">
+      <c r="C65" s="80">
         <v>-2.3079707966850674E-2</v>
       </c>
-      <c r="F65" s="93">
+      <c r="F65" s="79">
         <v>10</v>
       </c>
-      <c r="G65" s="94">
+      <c r="G65" s="80">
         <v>-9.2702773957823864E-3</v>
       </c>
-      <c r="H65" s="87"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="93">
+      <c r="H65" s="73"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="79">
         <v>10</v>
       </c>
-      <c r="K65" s="94">
+      <c r="K65" s="80">
         <v>-9.7392670642647283E-4</v>
       </c>
-      <c r="L65" s="90"/>
+      <c r="L65" s="76"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="93">
+      <c r="B66" s="79">
         <v>7</v>
       </c>
-      <c r="C66" s="94">
+      <c r="C66" s="80">
         <v>1.0666266631266824E-2</v>
       </c>
-      <c r="F66" s="93">
+      <c r="F66" s="79">
         <v>12</v>
       </c>
-      <c r="G66" s="94">
+      <c r="G66" s="80">
         <v>-1.0013221763827712E-2</v>
       </c>
-      <c r="H66" s="87"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="93">
+      <c r="H66" s="73"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="79">
         <v>12</v>
       </c>
-      <c r="K66" s="94">
+      <c r="K66" s="80">
         <v>5.2757323967326936E-3</v>
       </c>
-      <c r="L66" s="90"/>
+      <c r="L66" s="76"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="93">
+      <c r="B67" s="79">
         <v>8</v>
       </c>
-      <c r="C67" s="94">
+      <c r="C67" s="80">
         <v>3.3011301182731545E-3</v>
       </c>
-      <c r="F67" s="93">
+      <c r="F67" s="79">
         <v>14</v>
       </c>
-      <c r="G67" s="94">
+      <c r="G67" s="80">
         <v>3.1327227570157878E-3</v>
       </c>
-      <c r="H67" s="87"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="93">
+      <c r="H67" s="73"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="79">
         <v>14</v>
       </c>
-      <c r="K67" s="94">
+      <c r="K67" s="80">
         <v>9.8587248332251548E-3</v>
       </c>
-      <c r="L67" s="90"/>
+      <c r="L67" s="76"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="93">
+      <c r="B68" s="79">
         <v>9</v>
       </c>
-      <c r="C68" s="94">
+      <c r="C68" s="80">
         <v>-9.619561950276051E-3</v>
       </c>
-      <c r="F68" s="93">
+      <c r="F68" s="79">
         <v>16</v>
       </c>
-      <c r="G68" s="94">
+      <c r="G68" s="80">
         <v>2.5167556166748206E-2</v>
       </c>
-      <c r="H68" s="87"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="93">
+      <c r="H68" s="73"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="79">
         <v>16</v>
       </c>
-      <c r="K68" s="94">
+      <c r="K68" s="80">
         <v>-1.0002727174726833E-2</v>
       </c>
-      <c r="L68" s="90"/>
+      <c r="L68" s="76"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="93">
+      <c r="B69" s="79">
         <v>10</v>
       </c>
-      <c r="C69" s="94">
+      <c r="C69" s="80">
         <v>-3.1429142907714119E-2</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="90"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="76"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="93">
+      <c r="B70" s="79">
         <v>11</v>
       </c>
-      <c r="C70" s="94">
+      <c r="C70" s="80">
         <v>-1.6572057198485507E-2</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="87"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="90"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="76"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="93">
+      <c r="B71" s="79">
         <v>12</v>
       </c>
-      <c r="C71" s="94">
+      <c r="C71" s="80">
         <v>1.2729472955187504E-2</v>
       </c>
-      <c r="F71" s="87"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="92"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="90"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="76"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="93">
+      <c r="B72" s="79">
         <v>14</v>
       </c>
-      <c r="C72" s="94">
+      <c r="C72" s="80">
         <v>2.9110311040311421E-2</v>
       </c>
-      <c r="F72" s="87"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="90"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="76"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="93">
+      <c r="B73" s="79">
         <v>16</v>
       </c>
-      <c r="C73" s="94">
+      <c r="C73" s="80">
         <v>4.3268926903212934E-2</v>
       </c>
-      <c r="F73" s="87"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="92"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="90"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="76"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="86"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="86"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="90"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="72"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="76"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="86"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="86"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="90"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="72"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="76"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="86"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="86"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="89"/>
-      <c r="L76" s="86"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="72"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="72"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="J77" s="92"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
